--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="6"/>
-    <sheet name="boards" r:id="rId7" sheetId="7"/>
-    <sheet name="projects" r:id="rId5" sheetId="8"/>
+    <sheet name="users" r:id="rId6" sheetId="19"/>
+    <sheet name="boards" r:id="rId7" sheetId="20"/>
+    <sheet name="projects" r:id="rId5" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -308,48 +308,6 @@
   </si>
   <si>
     <t>xxx</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>user19</t>
-  </si>
-  <si>
-    <t>user19@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-0019</t>
-  </si>
-  <si>
-    <t>user19xxx</t>
-  </si>
-  <si>
-    <t>user19xxx@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-1119</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>gggx</t>
-  </si>
-  <si>
-    <t>gggxxx</t>
-  </si>
-  <si>
-    <t>2024-07-25 17:07:22</t>
-  </si>
-  <si>
-    <t>2024-1-2</t>
-  </si>
-  <si>
-    <t>2024-2-3</t>
-  </si>
-  <si>
-    <t>2,5</t>
   </si>
 </sst>
 </file>
@@ -392,9 +350,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -621,31 +579,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +640,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -768,23 +709,6 @@
       </c>
       <c r="E7" t="s" s="0">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -792,9 +716,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -828,16 +752,16 @@
         <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -918,6 +842,26 @@
       </c>
       <c r="F6" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
